--- a/sputnik/personal/uch/uch262.xlsx
+++ b/sputnik/personal/uch/uch262.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -37,13 +34,19 @@
   </si>
   <si>
     <t>Оплачен взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №262</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +61,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -74,7 +85,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -110,32 +121,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -170,15 +155,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,7 +477,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -504,10 +491,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="A2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -516,11 +505,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="10">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>10954.44</v>
@@ -528,11 +517,11 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="A4" s="10">
         <v>43253</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -540,11 +529,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>43366</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
@@ -552,11 +541,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>43586</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6">
         <v>10798.92</v>
@@ -564,11 +553,11 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>43702</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6">
@@ -608,9 +597,6 @@
       <c r="D14" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch262.xlsx
+++ b/sputnik/personal/uch/uch262.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №262</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -166,6 +169,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,7 +484,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -565,24 +572,40 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="14">
+        <v>43952</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8">
+        <v>12150</v>
+      </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="14">
+        <v>44039</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8">
+        <v>10000</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>

--- a/sputnik/personal/uch/uch262.xlsx
+++ b/sputnik/personal/uch/uch262.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -484,7 +484,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -596,10 +596,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="14">
+        <v>44102</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>3</v>
+      </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8">
+        <v>2150</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>

--- a/sputnik/personal/uch/uch262.xlsx
+++ b/sputnik/personal/uch/uch262.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -608,9 +611,15 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="14">
+        <v>44317</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8">
+        <v>12956.76</v>
+      </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch262.xlsx
+++ b/sputnik/personal/uch/uch262.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -142,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -160,7 +160,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -484,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -501,10 +500,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -515,7 +514,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -527,7 +526,7 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>43253</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -539,7 +538,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>43366</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -551,7 +550,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>43586</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -563,7 +562,7 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>43702</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -575,7 +574,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>43952</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -587,10 +586,10 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>44039</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="8"/>
@@ -599,10 +598,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>44102</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="8"/>
@@ -611,7 +610,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>44317</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -623,16 +622,46 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="13">
+        <v>44382</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
+        <v>5000</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch262.xlsx
+++ b/sputnik/personal/uch/uch262.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,10 +634,16 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="13">
+        <v>44454</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8">
+        <v>5000</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>

--- a/sputnik/personal/uch/uch262.xlsx
+++ b/sputnik/personal/uch/uch262.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -486,7 +486,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -646,10 +646,16 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="13">
+        <v>44515</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8">
+        <v>2956.76</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
